--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/shop.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/shop.xlsx
@@ -4,32 +4,151 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>lua_name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>items_count</t>
+  </si>
+  <si>
+    <t>items_cd</t>
+  </si>
+  <si>
+    <t>商店物编id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <t>游戏名称</t>
+  </si>
+  <si>
+    <t>商品列表</t>
+  </si>
+  <si>
+    <t>商品数量(-1代表无限买)</t>
+  </si>
+  <si>
+    <t>商品刷新时间(-1表示不刷新)</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>gybyd</t>
+  </si>
+  <si>
+    <t>雇佣兵营地</t>
+  </si>
+  <si>
+    <t>js|ssg|mjs</t>
+  </si>
+  <si>
+    <t>1|1|-1</t>
+  </si>
+  <si>
+    <t>-1|30|-1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -176,12 +295,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -496,138 +621,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,6 +828,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -941,14 +1096,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="6">
+        <v>134257687</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C$1:C$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/shop.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="20475" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>1|1|-1</t>
   </si>
   <si>
-    <t>-1|30|-1</t>
+    <t>-1|30|1</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/shop.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/shop.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>items</t>
@@ -75,6 +78,9 @@
     <t>游戏名称</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>商品列表</t>
   </si>
   <si>
@@ -105,7 +111,7 @@
     <t>雇佣兵营地</t>
   </si>
   <si>
-    <t>js|ssg|mjs</t>
+    <t>剑圣|食尸鬼|敏捷书</t>
   </si>
   <si>
     <t>1|1|-1</t>
@@ -1096,21 +1102,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="25.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1126,83 +1133,95 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:6">
+    <row r="2" ht="15" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" ht="15" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:6">
+    <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="6">
         <v>134257687</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C$1:C$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="C$1:D$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
